--- a/Hematology.xlsx
+++ b/Hematology.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE40B721-5430-461B-A239-A34A60678970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA44B5D-21C2-4960-81A1-773E316E62CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27120" yWindow="495" windowWidth="25080" windowHeight="19755" activeTab="1" xr2:uid="{612F008A-AE09-4780-A5ED-611738C66F74}"/>
+    <workbookView xWindow="-51300" yWindow="30" windowWidth="25635" windowHeight="19320" xr2:uid="{612F008A-AE09-4780-A5ED-611738C66F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Drugs" sheetId="2" r:id="rId2"/>
     <sheet name="Proteins" sheetId="3" r:id="rId3"/>
+    <sheet name="Multiple Myeloma" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="142">
   <si>
     <t>Diseases</t>
   </si>
@@ -247,9 +248,6 @@
     <t>DLBCL</t>
   </si>
   <si>
-    <t>CART</t>
-  </si>
-  <si>
     <t>Kymriah</t>
   </si>
   <si>
@@ -268,12 +266,6 @@
     <t>tafasitamab</t>
   </si>
   <si>
-    <t>MM, DLBCL</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
     <t>Carvykti</t>
   </si>
   <si>
@@ -338,6 +330,141 @@
   </si>
   <si>
     <t>BCMAxCD3xGPCR5D</t>
+  </si>
+  <si>
+    <t>BCMA CART</t>
+  </si>
+  <si>
+    <t>Tecvayli</t>
+  </si>
+  <si>
+    <t>teclistamab</t>
+  </si>
+  <si>
+    <t>Multiple Myeloma, DLBCL</t>
+  </si>
+  <si>
+    <t>JNJ/LEGN</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>ciltacabtagene autoleucel</t>
+  </si>
+  <si>
+    <t>Proteasome inhibitor</t>
+  </si>
+  <si>
+    <t>CD19 CART</t>
+  </si>
+  <si>
+    <t>CD19 mab</t>
+  </si>
+  <si>
+    <t>Kyprolis</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>Abecma</t>
+  </si>
+  <si>
+    <t>idecabtagene vicleucel</t>
+  </si>
+  <si>
+    <t>Zydelig</t>
+  </si>
+  <si>
+    <t>PI3K</t>
+  </si>
+  <si>
+    <t>nitrogen mustard</t>
+  </si>
+  <si>
+    <t>Treanda</t>
+  </si>
+  <si>
+    <t>brentuximab vedotin</t>
+  </si>
+  <si>
+    <t>CD30 ADC</t>
+  </si>
+  <si>
+    <t>bortezomib</t>
+  </si>
+  <si>
+    <t>ixazomib</t>
+  </si>
+  <si>
+    <t>Pomalid</t>
+  </si>
+  <si>
+    <t>pomalidomide</t>
+  </si>
+  <si>
+    <t>Empliciti</t>
+  </si>
+  <si>
+    <t>elotuzumab</t>
+  </si>
+  <si>
+    <t>carfilzomib</t>
+  </si>
+  <si>
+    <t>carmustine</t>
+  </si>
+  <si>
+    <t>melphalan</t>
+  </si>
+  <si>
+    <t>Sarclisa</t>
+  </si>
+  <si>
+    <t>isatuximab</t>
+  </si>
+  <si>
+    <t>Talvey</t>
+  </si>
+  <si>
+    <t>talquetamab</t>
+  </si>
+  <si>
+    <t>GPRC5DxCD3</t>
+  </si>
+  <si>
+    <t>SNY</t>
+  </si>
+  <si>
+    <t>Peak Revenue</t>
+  </si>
+  <si>
+    <t>Etiology</t>
+  </si>
+  <si>
+    <t>plasma cell malignancy</t>
+  </si>
+  <si>
+    <t>Epidemiology</t>
+  </si>
+  <si>
+    <t>35,000 diagnoses pa US, 12,000 deaths pa</t>
+  </si>
+  <si>
+    <t>Outcomes</t>
+  </si>
+  <si>
+    <t>60% 5-year survival rate</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>CD38 mab</t>
   </si>
 </sst>
 </file>
@@ -386,12 +513,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -731,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C73FBD5-CD25-4873-8154-81B1E3DD6DF9}">
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -769,12 +894,12 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
@@ -783,7 +908,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -794,7 +919,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
@@ -815,6 +940,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B14" location="Drugs!A1" display="Drugs" xr:uid="{5DB3B69D-5636-4C1B-977B-AFE6BE8BCAF5}"/>
+    <hyperlink ref="C11" location="'Multiple Myeloma'!A1" display="Multiple Myeloma" xr:uid="{F5EC0DE6-4F7D-4239-81ED-CAA1BA427390}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -822,381 +948,596 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A09EA82-0E97-421F-87A1-90EFEC7C7A36}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="13.42578125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="E40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="3" t="s">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1236,7 +1577,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1271,7 +1612,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1285,4 +1626,90 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D529539-7EAA-4618-9852-49DE86DAB812}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{EC8DB5E1-CEB5-4093-9697-5C4363022A0F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Hematology.xlsx
+++ b/Hematology.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA44B5D-21C2-4960-81A1-773E316E62CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01736F75-87DE-4B40-960E-4F1AAA305503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51300" yWindow="30" windowWidth="25635" windowHeight="19320" xr2:uid="{612F008A-AE09-4780-A5ED-611738C66F74}"/>
+    <workbookView xWindow="-28695" yWindow="1980" windowWidth="26610" windowHeight="13410" xr2:uid="{612F008A-AE09-4780-A5ED-611738C66F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Drugs" sheetId="2" r:id="rId2"/>
     <sheet name="Proteins" sheetId="3" r:id="rId3"/>
     <sheet name="Multiple Myeloma" sheetId="4" r:id="rId4"/>
+    <sheet name="CML" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="153">
   <si>
     <t>Diseases</t>
   </si>
@@ -465,6 +466,39 @@
   </si>
   <si>
     <t>CD38 mab</t>
+  </si>
+  <si>
+    <t>Scemblix</t>
+  </si>
+  <si>
+    <t>Gleevec</t>
+  </si>
+  <si>
+    <t>dasatinib</t>
+  </si>
+  <si>
+    <t>imatinib</t>
+  </si>
+  <si>
+    <t>asciminib</t>
+  </si>
+  <si>
+    <t>Sprycel</t>
+  </si>
+  <si>
+    <t>nilotinib</t>
+  </si>
+  <si>
+    <t>Tasigna</t>
+  </si>
+  <si>
+    <t>NVS</t>
+  </si>
+  <si>
+    <t>bosutinib</t>
+  </si>
+  <si>
+    <t>Bosulif</t>
   </si>
 </sst>
 </file>
@@ -857,7 +891,7 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -878,7 +912,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -941,6 +975,7 @@
   <hyperlinks>
     <hyperlink ref="B14" location="Drugs!A1" display="Drugs" xr:uid="{5DB3B69D-5636-4C1B-977B-AFE6BE8BCAF5}"/>
     <hyperlink ref="C11" location="'Multiple Myeloma'!A1" display="Multiple Myeloma" xr:uid="{F5EC0DE6-4F7D-4239-81ED-CAA1BA427390}"/>
+    <hyperlink ref="C5" location="CML!A1" display="CML" xr:uid="{1E142B31-AB54-44E0-A13C-33FDD8C2C541}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1712,4 +1747,99 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD8771C-2967-4B84-A7BF-38B86C5F9580}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{C9C5F800-64DD-4BC4-82E8-B2025D0B5DDF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Hematology.xlsx
+++ b/Hematology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01736F75-87DE-4B40-960E-4F1AAA305503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F45C23E-A443-4E66-8564-32B237B17D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28695" yWindow="1980" windowWidth="26610" windowHeight="13410" xr2:uid="{612F008A-AE09-4780-A5ED-611738C66F74}"/>
+    <workbookView xWindow="-27075" yWindow="2325" windowWidth="25590" windowHeight="15345" activeTab="1" xr2:uid="{612F008A-AE09-4780-A5ED-611738C66F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="178">
   <si>
     <t>Diseases</t>
   </si>
@@ -465,9 +465,6 @@
     <t>1L</t>
   </si>
   <si>
-    <t>CD38 mab</t>
-  </si>
-  <si>
     <t>Scemblix</t>
   </si>
   <si>
@@ -499,13 +496,91 @@
   </si>
   <si>
     <t>Bosulif</t>
+  </si>
+  <si>
+    <t>REGN</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>filed</t>
+  </si>
+  <si>
+    <t>Elrexfio</t>
+  </si>
+  <si>
+    <t>elranatamab</t>
+  </si>
+  <si>
+    <t>REGN5458</t>
+  </si>
+  <si>
+    <t>WVT078</t>
+  </si>
+  <si>
+    <t>R/R FL</t>
+  </si>
+  <si>
+    <t>Filed</t>
+  </si>
+  <si>
+    <t>Lunsumio</t>
+  </si>
+  <si>
+    <t>mosunetuzumab</t>
+  </si>
+  <si>
+    <t>IGM-2323</t>
+  </si>
+  <si>
+    <t>imvotamab</t>
+  </si>
+  <si>
+    <t>NHL</t>
+  </si>
+  <si>
+    <t>IGMS</t>
+  </si>
+  <si>
+    <t>eculizumab</t>
+  </si>
+  <si>
+    <t>Soliris</t>
+  </si>
+  <si>
+    <t>C5 mab</t>
+  </si>
+  <si>
+    <t>PNH</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>ravulizumab</t>
+  </si>
+  <si>
+    <t>Ultomiris</t>
+  </si>
+  <si>
+    <t>pozelimab</t>
+  </si>
+  <si>
+    <t>cemdisiran</t>
+  </si>
+  <si>
+    <t>C5 siRNA</t>
+  </si>
+  <si>
+    <t>ALNY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -520,6 +595,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -547,10 +629,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -890,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C73FBD5-CD25-4873-8154-81B1E3DD6DF9}">
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -983,13 +1067,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A09EA82-0E97-421F-87A1-90EFEC7C7A36}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1379,6 +1463,9 @@
       <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1416,24 +1503,22 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>62</v>
@@ -1444,18 +1529,21 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>105</v>
@@ -1466,7 +1554,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>105</v>
@@ -1477,70 +1565,79 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>106</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>68</v>
+      <c r="E36" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>82</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>68</v>
@@ -1551,7 +1648,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>68</v>
@@ -1562,18 +1659,108 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C50" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1665,9 +1852,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D529539-7EAA-4618-9852-49DE86DAB812}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1675,15 +1864,17 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>133</v>
       </c>
@@ -1691,7 +1882,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>135</v>
       </c>
@@ -1699,7 +1890,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>137</v>
       </c>
@@ -1707,38 +1898,259 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
-        <v>141</v>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23"/>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1783,32 +2195,32 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
         <v>149</v>
-      </c>
-      <c r="C4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -1816,10 +2228,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -1827,13 +2239,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Hematology.xlsx
+++ b/Hematology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F45C23E-A443-4E66-8564-32B237B17D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7EFEA9-42E6-43BE-9507-8DFFF3B9ECC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27075" yWindow="2325" windowWidth="25590" windowHeight="15345" activeTab="1" xr2:uid="{612F008A-AE09-4780-A5ED-611738C66F74}"/>
+    <workbookView xWindow="49560" yWindow="3670" windowWidth="25680" windowHeight="15420" activeTab="3" xr2:uid="{612F008A-AE09-4780-A5ED-611738C66F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="181">
   <si>
     <t>Diseases</t>
   </si>
@@ -201,9 +201,6 @@
     <t>DLBCL (diffuse large B-cell lymphoma)</t>
   </si>
   <si>
-    <t>follicular lymphoma</t>
-  </si>
-  <si>
     <t>Polivy</t>
   </si>
   <si>
@@ -318,9 +315,6 @@
     <t>slow-growing form of NHL, 20-30% of NHL. Can transform to DLBCL</t>
   </si>
   <si>
-    <t>15,000 new patients/year</t>
-  </si>
-  <si>
     <t>GPCR5D</t>
   </si>
   <si>
@@ -450,9 +444,6 @@
     <t>Epidemiology</t>
   </si>
   <si>
-    <t>35,000 diagnoses pa US, 12,000 deaths pa</t>
-  </si>
-  <si>
     <t>Outcomes</t>
   </si>
   <si>
@@ -574,6 +565,24 @@
   </si>
   <si>
     <t>ALNY</t>
+  </si>
+  <si>
+    <t>13,100-15,000 new patients/year US</t>
+  </si>
+  <si>
+    <t>120,000 incidence WW</t>
+  </si>
+  <si>
+    <t>Follicular Lymphoma</t>
+  </si>
+  <si>
+    <t>31,000 incidence US</t>
+  </si>
+  <si>
+    <t>163,000 incidence WW</t>
+  </si>
+  <si>
+    <t>35,000 diagnoses pa US, 12,000 deaths pa; 176,000 WW incidence</t>
   </si>
 </sst>
 </file>
@@ -629,12 +638,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -972,93 +980,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C73FBD5-CD25-4873-8154-81B1E3DD6DF9}">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" location="Drugs!A1" display="Drugs" xr:uid="{5DB3B69D-5636-4C1B-977B-AFE6BE8BCAF5}"/>
-    <hyperlink ref="C11" location="'Multiple Myeloma'!A1" display="Multiple Myeloma" xr:uid="{F5EC0DE6-4F7D-4239-81ED-CAA1BA427390}"/>
+    <hyperlink ref="B17" location="Drugs!A1" display="Drugs" xr:uid="{5DB3B69D-5636-4C1B-977B-AFE6BE8BCAF5}"/>
+    <hyperlink ref="C14" location="'Multiple Myeloma'!A1" display="Multiple Myeloma" xr:uid="{F5EC0DE6-4F7D-4239-81ED-CAA1BA427390}"/>
     <hyperlink ref="C5" location="CML!A1" display="CML" xr:uid="{1E142B31-AB54-44E0-A13C-33FDD8C2C541}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1069,28 +1095,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A09EA82-0E97-421F-87A1-90EFEC7C7A36}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.1796875" style="2"/>
+    <col min="3" max="3" width="13.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1110,16 +1136,16 @@
         <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1130,18 +1156,18 @@
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
@@ -1153,7 +1179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1170,32 +1196,32 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1204,32 +1230,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -1238,46 +1264,46 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
@@ -1287,10 +1313,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
@@ -1300,10 +1326,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
@@ -1313,46 +1339,46 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
         <v>128</v>
-      </c>
-      <c r="C15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" t="s">
-        <v>130</v>
       </c>
       <c r="E15" t="s">
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1369,7 +1395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1380,24 +1406,24 @@
         <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1414,38 +1440,38 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1453,10 +1479,10 @@
         <v>51</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
@@ -1464,35 +1490,35 @@
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1501,266 +1527,266 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="2" t="s">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="D32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
         <v>76</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C36" s="2" t="s">
+      <c r="D36" t="s">
         <v>78</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>79</v>
       </c>
-      <c r="E36" t="s">
-        <v>159</v>
-      </c>
-      <c r="F36" t="s">
-        <v>160</v>
-      </c>
-      <c r="G36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>82</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+      <c r="E40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+      <c r="E41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" t="s">
+        <v>167</v>
+      </c>
+      <c r="G43" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="2" t="s">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" t="s">
         <v>167</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" t="s">
-        <v>165</v>
-      </c>
-      <c r="G48" t="s">
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C49" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" t="s">
         <v>174</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C50" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1782,62 +1808,62 @@
       <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -1852,305 +1878,317 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D529539-7EAA-4618-9852-49DE86DAB812}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>133</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="C8" t="s">
         <v>135</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="H12" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C23" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D23" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" t="s">
         <v>75</v>
       </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>155</v>
       </c>
-      <c r="C15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22"/>
-      <c r="C22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23"/>
-      <c r="C23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" t="s">
         <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2172,17 +2210,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -2193,59 +2231,59 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
         <v>144</v>
       </c>
-      <c r="D3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" t="s">
-        <v>147</v>
-      </c>
       <c r="D4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
